--- a/Code/Results/Cases/Case_5_171/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_171/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.038850441727842</v>
+        <v>1.068598123028721</v>
       </c>
       <c r="D2">
-        <v>1.050994252211005</v>
+        <v>1.069214107346037</v>
       </c>
       <c r="E2">
-        <v>1.048821348044372</v>
+        <v>1.072716216237676</v>
       </c>
       <c r="F2">
-        <v>1.057391251417777</v>
+        <v>1.081869338050028</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059376803426612</v>
+        <v>1.053098109137426</v>
       </c>
       <c r="J2">
-        <v>1.059928140743387</v>
+        <v>1.073537116518704</v>
       </c>
       <c r="K2">
-        <v>1.061786089825888</v>
+        <v>1.07191721343545</v>
       </c>
       <c r="L2">
-        <v>1.059639979166901</v>
+        <v>1.075409992178965</v>
       </c>
       <c r="M2">
-        <v>1.068105003501484</v>
+        <v>1.084539036760271</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.044358946580525</v>
+        <v>1.069752685081886</v>
       </c>
       <c r="D3">
-        <v>1.055204058045087</v>
+        <v>1.070115331736703</v>
       </c>
       <c r="E3">
-        <v>1.053454487175432</v>
+        <v>1.073732100620997</v>
       </c>
       <c r="F3">
-        <v>1.062238341166278</v>
+        <v>1.082935817633667</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061250205232082</v>
+        <v>1.053430970584871</v>
       </c>
       <c r="J3">
-        <v>1.063709282781279</v>
+        <v>1.07434753643135</v>
       </c>
       <c r="K3">
-        <v>1.065176151111766</v>
+        <v>1.072634353799943</v>
       </c>
       <c r="L3">
-        <v>1.063446212711173</v>
+        <v>1.076242183385786</v>
       </c>
       <c r="M3">
-        <v>1.07213230265856</v>
+        <v>1.085423441781775</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.04784391261259</v>
+        <v>1.070499949551977</v>
       </c>
       <c r="D4">
-        <v>1.057870402105413</v>
+        <v>1.070698609005516</v>
       </c>
       <c r="E4">
-        <v>1.056391019051465</v>
+        <v>1.074389896539057</v>
       </c>
       <c r="F4">
-        <v>1.065310766947311</v>
+        <v>1.083626430059325</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062426408758748</v>
+        <v>1.053645243351831</v>
       </c>
       <c r="J4">
-        <v>1.066098187241732</v>
+        <v>1.074871529106607</v>
       </c>
       <c r="K4">
-        <v>1.067317165274218</v>
+        <v>1.073097879451309</v>
       </c>
       <c r="L4">
-        <v>1.065853352796389</v>
+        <v>1.076780502638638</v>
       </c>
       <c r="M4">
-        <v>1.074680020100017</v>
+        <v>1.085995633006102</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.049290762303096</v>
+        <v>1.070814144591256</v>
       </c>
       <c r="D5">
-        <v>1.05897804631212</v>
+        <v>1.070943848465059</v>
       </c>
       <c r="E5">
-        <v>1.057611412005513</v>
+        <v>1.074666541792543</v>
       </c>
       <c r="F5">
-        <v>1.066587707058764</v>
+        <v>1.083916890066405</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062912531659796</v>
+        <v>1.053735057681414</v>
       </c>
       <c r="J5">
-        <v>1.067089167371341</v>
+        <v>1.075091719204988</v>
       </c>
       <c r="K5">
-        <v>1.068205109915615</v>
+        <v>1.073292623020768</v>
       </c>
       <c r="L5">
-        <v>1.066852466213637</v>
+        <v>1.077006772778794</v>
       </c>
       <c r="M5">
-        <v>1.075737666150741</v>
+        <v>1.08623616352328</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.049532647550157</v>
+        <v>1.070866901981096</v>
       </c>
       <c r="D6">
-        <v>1.059163260148111</v>
+        <v>1.070985026985379</v>
       </c>
       <c r="E6">
-        <v>1.057815509282112</v>
+        <v>1.074712998070245</v>
       </c>
       <c r="F6">
-        <v>1.066801265442898</v>
+        <v>1.083965666998632</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062993671526976</v>
+        <v>1.053750122307585</v>
       </c>
       <c r="J6">
-        <v>1.067254790757201</v>
+        <v>1.075128684440242</v>
       </c>
       <c r="K6">
-        <v>1.068353500594362</v>
+        <v>1.073325314132524</v>
       </c>
       <c r="L6">
-        <v>1.067019482276548</v>
+        <v>1.077044762228376</v>
       </c>
       <c r="M6">
-        <v>1.075914477592665</v>
+        <v>1.086276548560273</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.047863316121442</v>
+        <v>1.070504147663637</v>
       </c>
       <c r="D7">
-        <v>1.057885254039261</v>
+        <v>1.070701885790722</v>
       </c>
       <c r="E7">
-        <v>1.05640738076086</v>
+        <v>1.07439359266278</v>
       </c>
       <c r="F7">
-        <v>1.06532788649733</v>
+        <v>1.08363031070299</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062432936834071</v>
+        <v>1.053646444500264</v>
       </c>
       <c r="J7">
-        <v>1.066111480433209</v>
+        <v>1.074874471676213</v>
       </c>
       <c r="K7">
-        <v>1.067329077148769</v>
+        <v>1.073100482106216</v>
       </c>
       <c r="L7">
-        <v>1.065866752845014</v>
+        <v>1.07678352622562</v>
       </c>
       <c r="M7">
-        <v>1.074694204457412</v>
+        <v>1.085998847060023</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.04072899207428</v>
+        <v>1.068988274617785</v>
       </c>
       <c r="D8">
-        <v>1.052429243120885</v>
+        <v>1.06951865438978</v>
       </c>
       <c r="E8">
-        <v>1.050400215252447</v>
+        <v>1.07305944573912</v>
       </c>
       <c r="F8">
-        <v>1.059042968223551</v>
+        <v>1.082229650287652</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060017551618361</v>
+        <v>1.053210831228347</v>
       </c>
       <c r="J8">
-        <v>1.061218268504704</v>
+        <v>1.07381108527012</v>
       </c>
       <c r="K8">
-        <v>1.062942943942417</v>
+        <v>1.072159680409149</v>
       </c>
       <c r="L8">
-        <v>1.06093816533245</v>
+        <v>1.0756912690804</v>
       </c>
       <c r="M8">
-        <v>1.069478425774857</v>
+        <v>1.08483794171514</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.027511750292309</v>
+        <v>1.06631850633067</v>
       </c>
       <c r="D9">
-        <v>1.042348221944368</v>
+        <v>1.067434613358311</v>
       </c>
       <c r="E9">
-        <v>1.039316655400923</v>
+        <v>1.070711963607996</v>
       </c>
       <c r="F9">
-        <v>1.047449176867607</v>
+        <v>1.079765559901798</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055472617415676</v>
+        <v>1.052434717154804</v>
       </c>
       <c r="J9">
-        <v>1.052129050971164</v>
+        <v>1.071934169495964</v>
       </c>
       <c r="K9">
-        <v>1.054789660619394</v>
+        <v>1.070497945570388</v>
       </c>
       <c r="L9">
-        <v>1.051802501445133</v>
+        <v>1.073765314589347</v>
       </c>
       <c r="M9">
-        <v>1.059816630141611</v>
+        <v>1.082791681043411</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.018209552308137</v>
+        <v>1.064539556177625</v>
       </c>
       <c r="D10">
-        <v>1.035275965518941</v>
+        <v>1.066045908775603</v>
       </c>
       <c r="E10">
-        <v>1.03155088556385</v>
+        <v>1.069149299354002</v>
       </c>
       <c r="F10">
-        <v>1.039327328363897</v>
+        <v>1.078125557279785</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052229097020299</v>
+        <v>1.051911586127511</v>
       </c>
       <c r="J10">
-        <v>1.045718870030689</v>
+        <v>1.070680803198111</v>
       </c>
       <c r="K10">
-        <v>1.049036230347094</v>
+        <v>1.069387483238042</v>
       </c>
       <c r="L10">
-        <v>1.045372924845452</v>
+        <v>1.07248049525654</v>
       </c>
       <c r="M10">
-        <v>1.053021053982744</v>
+        <v>1.081427103033606</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.014051223674421</v>
+        <v>1.063769453377602</v>
       </c>
       <c r="D11">
-        <v>1.032120935736172</v>
+        <v>1.065444740842335</v>
       </c>
       <c r="E11">
-        <v>1.028088582028794</v>
+        <v>1.068473198884212</v>
       </c>
       <c r="F11">
-        <v>1.035706584675037</v>
+        <v>1.077416063191964</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050769168217483</v>
+        <v>1.05168370674739</v>
       </c>
       <c r="J11">
-        <v>1.042850917036032</v>
+        <v>1.070137583336885</v>
       </c>
       <c r="K11">
-        <v>1.0464614980013</v>
+        <v>1.068906013591176</v>
       </c>
       <c r="L11">
-        <v>1.042499541749521</v>
+        <v>1.071923951071887</v>
       </c>
       <c r="M11">
-        <v>1.049985143469474</v>
+        <v>1.080836128338912</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.012485731659304</v>
+        <v>1.063483431132369</v>
       </c>
       <c r="D12">
-        <v>1.030934224879583</v>
+        <v>1.065221462857187</v>
       </c>
       <c r="E12">
-        <v>1.026786593288941</v>
+        <v>1.068222146543281</v>
       </c>
       <c r="F12">
-        <v>1.03434506035208</v>
+        <v>1.077152621134449</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050218104774078</v>
+        <v>1.051598857713459</v>
       </c>
       <c r="J12">
-        <v>1.04177091423147</v>
+        <v>1.069935731226748</v>
       </c>
       <c r="K12">
-        <v>1.045491838646178</v>
+        <v>1.06872707915533</v>
       </c>
       <c r="L12">
-        <v>1.041417989397171</v>
+        <v>1.071717194147251</v>
       </c>
       <c r="M12">
-        <v>1.048842573209436</v>
+        <v>1.080616598258584</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.012822503216552</v>
+        <v>1.063544782613359</v>
       </c>
       <c r="D13">
-        <v>1.031189462458676</v>
+        <v>1.065269355722892</v>
       </c>
       <c r="E13">
-        <v>1.027066611680763</v>
+        <v>1.068275994438386</v>
       </c>
       <c r="F13">
-        <v>1.03463788102874</v>
+        <v>1.077209126025422</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05033671471475</v>
+        <v>1.051617067374778</v>
       </c>
       <c r="J13">
-        <v>1.042003258923361</v>
+        <v>1.069979032637344</v>
       </c>
       <c r="K13">
-        <v>1.04570044796673</v>
+        <v>1.068765465509158</v>
       </c>
       <c r="L13">
-        <v>1.041650644951163</v>
+        <v>1.071761545644865</v>
       </c>
       <c r="M13">
-        <v>1.049088347310903</v>
+        <v>1.080663688923117</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.013922254018327</v>
+        <v>1.063745810119465</v>
       </c>
       <c r="D14">
-        <v>1.032023148865268</v>
+        <v>1.065426284154547</v>
       </c>
       <c r="E14">
-        <v>1.027981290137946</v>
+        <v>1.068452445158282</v>
       </c>
       <c r="F14">
-        <v>1.035594385774874</v>
+        <v>1.077394285039472</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050723798992967</v>
+        <v>1.051676697271981</v>
       </c>
       <c r="J14">
-        <v>1.042761949064995</v>
+        <v>1.070120899732243</v>
       </c>
       <c r="K14">
-        <v>1.046381621311329</v>
+        <v>1.068891224757519</v>
       </c>
       <c r="L14">
-        <v>1.042410436024926</v>
+        <v>1.071906861126735</v>
       </c>
       <c r="M14">
-        <v>1.049891007446583</v>
+        <v>1.080817982236922</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.014597035762068</v>
+        <v>1.063869673511489</v>
       </c>
       <c r="D15">
-        <v>1.032534823344202</v>
+        <v>1.065522975928064</v>
       </c>
       <c r="E15">
-        <v>1.028542712109421</v>
+        <v>1.068561173061767</v>
       </c>
       <c r="F15">
-        <v>1.036181486293931</v>
+        <v>1.077508380286038</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050961116801635</v>
+        <v>1.051713410119414</v>
       </c>
       <c r="J15">
-        <v>1.043227426277515</v>
+        <v>1.070208298641625</v>
       </c>
       <c r="K15">
-        <v>1.046799530251032</v>
+        <v>1.068968696563867</v>
       </c>
       <c r="L15">
-        <v>1.042876654176901</v>
+        <v>1.071996390592003</v>
       </c>
       <c r="M15">
-        <v>1.050383551529303</v>
+        <v>1.080913045343965</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.018482669870244</v>
+        <v>1.064590669375619</v>
       </c>
       <c r="D16">
-        <v>1.035483329159068</v>
+        <v>1.066085809475758</v>
       </c>
       <c r="E16">
-        <v>1.031778487060322</v>
+        <v>1.069194181350923</v>
       </c>
       <c r="F16">
-        <v>1.039565351633183</v>
+        <v>1.078172657488174</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05232478172762</v>
+        <v>1.051926681062425</v>
       </c>
       <c r="J16">
-        <v>1.04590719096882</v>
+        <v>1.070716844263062</v>
       </c>
       <c r="K16">
-        <v>1.049205285823862</v>
+        <v>1.069419423457371</v>
       </c>
       <c r="L16">
-        <v>1.045561670485029</v>
+        <v>1.072517426838242</v>
       </c>
       <c r="M16">
-        <v>1.053220497423835</v>
+        <v>1.081466321879406</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.020884219024044</v>
+        <v>1.06504298237719</v>
       </c>
       <c r="D17">
-        <v>1.037307442268245</v>
+        <v>1.066438900312277</v>
       </c>
       <c r="E17">
-        <v>1.033780864177581</v>
+        <v>1.069591396105844</v>
       </c>
       <c r="F17">
-        <v>1.041659452270833</v>
+        <v>1.078589511664597</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053165018724097</v>
+        <v>1.0520600960342</v>
       </c>
       <c r="J17">
-        <v>1.04756284636775</v>
+        <v>1.071035706318366</v>
       </c>
       <c r="K17">
-        <v>1.050691497816926</v>
+        <v>1.069701983148324</v>
       </c>
       <c r="L17">
-        <v>1.047221429286343</v>
+        <v>1.072844202999432</v>
       </c>
       <c r="M17">
-        <v>1.054974446866042</v>
+        <v>1.081813349784479</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.022272513009802</v>
+        <v>1.065306827716249</v>
       </c>
       <c r="D18">
-        <v>1.038362534867938</v>
+        <v>1.066644866728696</v>
       </c>
       <c r="E18">
-        <v>1.034939268679078</v>
+        <v>1.069823137199998</v>
       </c>
       <c r="F18">
-        <v>1.042870950121776</v>
+        <v>1.078832717211375</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053649795543075</v>
+        <v>1.052137783499864</v>
       </c>
       <c r="J18">
-        <v>1.048519717347619</v>
+        <v>1.071221644556738</v>
       </c>
       <c r="K18">
-        <v>1.051550381400326</v>
+        <v>1.069866734457671</v>
       </c>
       <c r="L18">
-        <v>1.048180978552079</v>
+        <v>1.07303478586275</v>
       </c>
       <c r="M18">
-        <v>1.05598854830273</v>
+        <v>1.082015755327843</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.022743805016757</v>
+        <v>1.065396795380062</v>
       </c>
       <c r="D19">
-        <v>1.038720812830848</v>
+        <v>1.066715098415334</v>
       </c>
       <c r="E19">
-        <v>1.035332663021258</v>
+        <v>1.069902163825714</v>
       </c>
       <c r="F19">
-        <v>1.043282380109507</v>
+        <v>1.078915654465153</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053814202691482</v>
+        <v>1.052164250663171</v>
       </c>
       <c r="J19">
-        <v>1.048844510061538</v>
+        <v>1.071285036457551</v>
       </c>
       <c r="K19">
-        <v>1.051841903566841</v>
+        <v>1.069922900059846</v>
       </c>
       <c r="L19">
-        <v>1.048506732189022</v>
+        <v>1.073099766284903</v>
       </c>
       <c r="M19">
-        <v>1.056332838232436</v>
+        <v>1.082084768704692</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.020627856437531</v>
+        <v>1.064994451533234</v>
       </c>
       <c r="D20">
-        <v>1.037112656903589</v>
+        <v>1.0664010155069</v>
       </c>
       <c r="E20">
-        <v>1.033567022365411</v>
+        <v>1.06954877329803</v>
       </c>
       <c r="F20">
-        <v>1.041435811845127</v>
+        <v>1.07854478079056</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053075422557647</v>
+        <v>1.052045795445005</v>
       </c>
       <c r="J20">
-        <v>1.047386130989585</v>
+        <v>1.071001500467231</v>
       </c>
       <c r="K20">
-        <v>1.050532873906499</v>
+        <v>1.06967167347618</v>
       </c>
       <c r="L20">
-        <v>1.047044244041254</v>
+        <v>1.072809145095039</v>
       </c>
       <c r="M20">
-        <v>1.054787196230285</v>
+        <v>1.081776118006501</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.013598992947351</v>
+        <v>1.063686611758109</v>
       </c>
       <c r="D21">
-        <v>1.031778064650924</v>
+        <v>1.065380072020457</v>
       </c>
       <c r="E21">
-        <v>1.027712388127042</v>
+        <v>1.068400482571409</v>
       </c>
       <c r="F21">
-        <v>1.035313186217665</v>
+        <v>1.077339757686321</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050610058503832</v>
+        <v>1.051659143399351</v>
       </c>
       <c r="J21">
-        <v>1.042538947184488</v>
+        <v>1.070079125511349</v>
       </c>
       <c r="K21">
-        <v>1.046181405924858</v>
+        <v>1.068854194422154</v>
       </c>
       <c r="L21">
-        <v>1.042187096860439</v>
+        <v>1.071864070214434</v>
       </c>
       <c r="M21">
-        <v>1.049655062636258</v>
+        <v>1.080772547138706</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.00905799223495</v>
+        <v>1.062864483795812</v>
       </c>
       <c r="D22">
-        <v>1.028337928503467</v>
+        <v>1.064738294794951</v>
       </c>
       <c r="E22">
-        <v>1.023938616624357</v>
+        <v>1.067678977931866</v>
       </c>
       <c r="F22">
-        <v>1.031366936551472</v>
+        <v>1.076582665063283</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0490089327375</v>
+        <v>1.051414856756399</v>
       </c>
       <c r="J22">
-        <v>1.039405705675778</v>
+        <v>1.069498751497278</v>
       </c>
       <c r="K22">
-        <v>1.043368159922327</v>
+        <v>1.068339662163455</v>
       </c>
       <c r="L22">
-        <v>1.039050307694951</v>
+        <v>1.071269680980905</v>
       </c>
       <c r="M22">
-        <v>1.046341607374024</v>
+        <v>1.080141470975535</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.011477263663964</v>
+        <v>1.063300294276089</v>
       </c>
       <c r="D23">
-        <v>1.03017007610047</v>
+        <v>1.065078500688652</v>
       </c>
       <c r="E23">
-        <v>1.025948296022919</v>
+        <v>1.068061416574682</v>
       </c>
       <c r="F23">
-        <v>1.033468443100698</v>
+        <v>1.076983961812737</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049862718759772</v>
+        <v>1.051544469920947</v>
       </c>
       <c r="J23">
-        <v>1.041075115433823</v>
+        <v>1.069806460591793</v>
       </c>
       <c r="K23">
-        <v>1.044867109824617</v>
+        <v>1.068612477718944</v>
       </c>
       <c r="L23">
-        <v>1.040721332861539</v>
+        <v>1.071584795401161</v>
       </c>
       <c r="M23">
-        <v>1.048106658236917</v>
+        <v>1.080476025122901</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.020743734153662</v>
+        <v>1.06501638047416</v>
       </c>
       <c r="D24">
-        <v>1.037200699409129</v>
+        <v>1.066418133974767</v>
       </c>
       <c r="E24">
-        <v>1.033663677711987</v>
+        <v>1.069568032547984</v>
       </c>
       <c r="F24">
-        <v>1.041536896019196</v>
+        <v>1.078564992556742</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053115923613563</v>
+        <v>1.052052257671087</v>
       </c>
       <c r="J24">
-        <v>1.047466008332948</v>
+        <v>1.071016956768975</v>
       </c>
       <c r="K24">
-        <v>1.050604573887055</v>
+        <v>1.069685369300617</v>
       </c>
       <c r="L24">
-        <v>1.047124332818653</v>
+        <v>1.072824986315055</v>
       </c>
       <c r="M24">
-        <v>1.054871834319464</v>
+        <v>1.081792941474959</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.031010797147166</v>
+        <v>1.067008544571607</v>
       </c>
       <c r="D25">
-        <v>1.045013439490451</v>
+        <v>1.067973272865024</v>
       </c>
       <c r="E25">
-        <v>1.042245168135191</v>
+        <v>1.071318434472575</v>
       </c>
       <c r="F25">
-        <v>1.050512252320058</v>
+        <v>1.080402106142701</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056683718238881</v>
+        <v>1.052636369625016</v>
       </c>
       <c r="J25">
-        <v>1.054537770577212</v>
+        <v>1.072419764741992</v>
       </c>
       <c r="K25">
-        <v>1.056950973569751</v>
+        <v>1.070928008864739</v>
       </c>
       <c r="L25">
-        <v>1.054221259493303</v>
+        <v>1.074263369463477</v>
       </c>
       <c r="M25">
-        <v>1.062373956590284</v>
+        <v>1.083320759525489</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_171/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_171/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.068598123028721</v>
+        <v>1.038850441727841</v>
       </c>
       <c r="D2">
-        <v>1.069214107346037</v>
+        <v>1.050994252211005</v>
       </c>
       <c r="E2">
-        <v>1.072716216237676</v>
+        <v>1.048821348044371</v>
       </c>
       <c r="F2">
-        <v>1.081869338050028</v>
+        <v>1.057391251417776</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053098109137426</v>
+        <v>1.059376803426612</v>
       </c>
       <c r="J2">
-        <v>1.073537116518704</v>
+        <v>1.059928140743387</v>
       </c>
       <c r="K2">
-        <v>1.07191721343545</v>
+        <v>1.061786089825888</v>
       </c>
       <c r="L2">
-        <v>1.075409992178965</v>
+        <v>1.0596399791669</v>
       </c>
       <c r="M2">
-        <v>1.084539036760271</v>
+        <v>1.068105003501483</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.069752685081886</v>
+        <v>1.044358946580526</v>
       </c>
       <c r="D3">
-        <v>1.070115331736703</v>
+        <v>1.055204058045088</v>
       </c>
       <c r="E3">
-        <v>1.073732100620997</v>
+        <v>1.053454487175433</v>
       </c>
       <c r="F3">
-        <v>1.082935817633667</v>
+        <v>1.062238341166278</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053430970584871</v>
+        <v>1.061250205232082</v>
       </c>
       <c r="J3">
-        <v>1.07434753643135</v>
+        <v>1.06370928278128</v>
       </c>
       <c r="K3">
-        <v>1.072634353799943</v>
+        <v>1.065176151111766</v>
       </c>
       <c r="L3">
-        <v>1.076242183385786</v>
+        <v>1.063446212711173</v>
       </c>
       <c r="M3">
-        <v>1.085423441781775</v>
+        <v>1.07213230265856</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.070499949551977</v>
+        <v>1.04784391261259</v>
       </c>
       <c r="D4">
-        <v>1.070698609005516</v>
+        <v>1.057870402105413</v>
       </c>
       <c r="E4">
-        <v>1.074389896539057</v>
+        <v>1.056391019051465</v>
       </c>
       <c r="F4">
-        <v>1.083626430059325</v>
+        <v>1.065310766947311</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053645243351831</v>
+        <v>1.062426408758748</v>
       </c>
       <c r="J4">
-        <v>1.074871529106607</v>
+        <v>1.066098187241731</v>
       </c>
       <c r="K4">
-        <v>1.073097879451309</v>
+        <v>1.067317165274217</v>
       </c>
       <c r="L4">
-        <v>1.076780502638638</v>
+        <v>1.065853352796389</v>
       </c>
       <c r="M4">
-        <v>1.085995633006102</v>
+        <v>1.074680020100017</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.070814144591256</v>
+        <v>1.049290762303096</v>
       </c>
       <c r="D5">
-        <v>1.070943848465059</v>
+        <v>1.05897804631212</v>
       </c>
       <c r="E5">
-        <v>1.074666541792543</v>
+        <v>1.057611412005513</v>
       </c>
       <c r="F5">
-        <v>1.083916890066405</v>
+        <v>1.066587707058764</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053735057681414</v>
+        <v>1.062912531659796</v>
       </c>
       <c r="J5">
-        <v>1.075091719204988</v>
+        <v>1.067089167371341</v>
       </c>
       <c r="K5">
-        <v>1.073292623020768</v>
+        <v>1.068205109915616</v>
       </c>
       <c r="L5">
-        <v>1.077006772778794</v>
+        <v>1.066852466213637</v>
       </c>
       <c r="M5">
-        <v>1.08623616352328</v>
+        <v>1.075737666150741</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.070866901981096</v>
+        <v>1.049532647550159</v>
       </c>
       <c r="D6">
-        <v>1.070985026985379</v>
+        <v>1.059163260148113</v>
       </c>
       <c r="E6">
-        <v>1.074712998070245</v>
+        <v>1.057815509282114</v>
       </c>
       <c r="F6">
-        <v>1.083965666998632</v>
+        <v>1.066801265442901</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053750122307585</v>
+        <v>1.062993671526977</v>
       </c>
       <c r="J6">
-        <v>1.075128684440242</v>
+        <v>1.067254790757203</v>
       </c>
       <c r="K6">
-        <v>1.073325314132524</v>
+        <v>1.068353500594364</v>
       </c>
       <c r="L6">
-        <v>1.077044762228376</v>
+        <v>1.06701948227655</v>
       </c>
       <c r="M6">
-        <v>1.086276548560273</v>
+        <v>1.075914477592668</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.070504147663637</v>
+        <v>1.047863316121442</v>
       </c>
       <c r="D7">
-        <v>1.070701885790722</v>
+        <v>1.057885254039261</v>
       </c>
       <c r="E7">
-        <v>1.07439359266278</v>
+        <v>1.05640738076086</v>
       </c>
       <c r="F7">
-        <v>1.08363031070299</v>
+        <v>1.06532788649733</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053646444500264</v>
+        <v>1.062432936834071</v>
       </c>
       <c r="J7">
-        <v>1.074874471676213</v>
+        <v>1.066111480433209</v>
       </c>
       <c r="K7">
-        <v>1.073100482106216</v>
+        <v>1.067329077148769</v>
       </c>
       <c r="L7">
-        <v>1.07678352622562</v>
+        <v>1.065866752845014</v>
       </c>
       <c r="M7">
-        <v>1.085998847060023</v>
+        <v>1.074694204457412</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.068988274617785</v>
+        <v>1.04072899207428</v>
       </c>
       <c r="D8">
-        <v>1.06951865438978</v>
+        <v>1.052429243120884</v>
       </c>
       <c r="E8">
-        <v>1.07305944573912</v>
+        <v>1.050400215252447</v>
       </c>
       <c r="F8">
-        <v>1.082229650287652</v>
+        <v>1.05904296822355</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053210831228347</v>
+        <v>1.060017551618361</v>
       </c>
       <c r="J8">
-        <v>1.07381108527012</v>
+        <v>1.061218268504704</v>
       </c>
       <c r="K8">
-        <v>1.072159680409149</v>
+        <v>1.062942943942416</v>
       </c>
       <c r="L8">
-        <v>1.0756912690804</v>
+        <v>1.06093816533245</v>
       </c>
       <c r="M8">
-        <v>1.08483794171514</v>
+        <v>1.069478425774857</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.06631850633067</v>
+        <v>1.027511750292307</v>
       </c>
       <c r="D9">
-        <v>1.067434613358311</v>
+        <v>1.042348221944367</v>
       </c>
       <c r="E9">
-        <v>1.070711963607996</v>
+        <v>1.039316655400921</v>
       </c>
       <c r="F9">
-        <v>1.079765559901798</v>
+        <v>1.047449176867604</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052434717154804</v>
+        <v>1.055472617415675</v>
       </c>
       <c r="J9">
-        <v>1.071934169495964</v>
+        <v>1.052129050971162</v>
       </c>
       <c r="K9">
-        <v>1.070497945570388</v>
+        <v>1.054789660619392</v>
       </c>
       <c r="L9">
-        <v>1.073765314589347</v>
+        <v>1.05180250144513</v>
       </c>
       <c r="M9">
-        <v>1.082791681043411</v>
+        <v>1.059816630141608</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.064539556177625</v>
+        <v>1.018209552308135</v>
       </c>
       <c r="D10">
-        <v>1.066045908775603</v>
+        <v>1.035275965518939</v>
       </c>
       <c r="E10">
-        <v>1.069149299354002</v>
+        <v>1.031550885563848</v>
       </c>
       <c r="F10">
-        <v>1.078125557279785</v>
+        <v>1.039327328363895</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051911586127511</v>
+        <v>1.052229097020298</v>
       </c>
       <c r="J10">
-        <v>1.070680803198111</v>
+        <v>1.045718870030687</v>
       </c>
       <c r="K10">
-        <v>1.069387483238042</v>
+        <v>1.049036230347092</v>
       </c>
       <c r="L10">
-        <v>1.07248049525654</v>
+        <v>1.04537292484545</v>
       </c>
       <c r="M10">
-        <v>1.081427103033606</v>
+        <v>1.053021053982742</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.063769453377602</v>
+        <v>1.014051223674419</v>
       </c>
       <c r="D11">
-        <v>1.065444740842335</v>
+        <v>1.032120935736171</v>
       </c>
       <c r="E11">
-        <v>1.068473198884212</v>
+        <v>1.028088582028792</v>
       </c>
       <c r="F11">
-        <v>1.077416063191964</v>
+        <v>1.035706584675036</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05168370674739</v>
+        <v>1.050769168217483</v>
       </c>
       <c r="J11">
-        <v>1.070137583336885</v>
+        <v>1.042850917036031</v>
       </c>
       <c r="K11">
-        <v>1.068906013591176</v>
+        <v>1.046461498001299</v>
       </c>
       <c r="L11">
-        <v>1.071923951071887</v>
+        <v>1.04249954174952</v>
       </c>
       <c r="M11">
-        <v>1.080836128338912</v>
+        <v>1.049985143469473</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.063483431132369</v>
+        <v>1.012485731659305</v>
       </c>
       <c r="D12">
-        <v>1.065221462857187</v>
+        <v>1.030934224879584</v>
       </c>
       <c r="E12">
-        <v>1.068222146543281</v>
+        <v>1.026786593288942</v>
       </c>
       <c r="F12">
-        <v>1.077152621134449</v>
+        <v>1.034345060352081</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051598857713459</v>
+        <v>1.050218104774079</v>
       </c>
       <c r="J12">
-        <v>1.069935731226748</v>
+        <v>1.041770914231471</v>
       </c>
       <c r="K12">
-        <v>1.06872707915533</v>
+        <v>1.045491838646179</v>
       </c>
       <c r="L12">
-        <v>1.071717194147251</v>
+        <v>1.041417989397172</v>
       </c>
       <c r="M12">
-        <v>1.080616598258584</v>
+        <v>1.048842573209436</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.063544782613359</v>
+        <v>1.012822503216553</v>
       </c>
       <c r="D13">
-        <v>1.065269355722892</v>
+        <v>1.031189462458677</v>
       </c>
       <c r="E13">
-        <v>1.068275994438386</v>
+        <v>1.027066611680763</v>
       </c>
       <c r="F13">
-        <v>1.077209126025422</v>
+        <v>1.034637881028741</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051617067374778</v>
+        <v>1.050336714714751</v>
       </c>
       <c r="J13">
-        <v>1.069979032637344</v>
+        <v>1.042003258923362</v>
       </c>
       <c r="K13">
-        <v>1.068765465509158</v>
+        <v>1.045700447966731</v>
       </c>
       <c r="L13">
-        <v>1.071761545644865</v>
+        <v>1.041650644951164</v>
       </c>
       <c r="M13">
-        <v>1.080663688923117</v>
+        <v>1.049088347310904</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.063745810119465</v>
+        <v>1.013922254018326</v>
       </c>
       <c r="D14">
-        <v>1.065426284154547</v>
+        <v>1.032023148865267</v>
       </c>
       <c r="E14">
-        <v>1.068452445158282</v>
+        <v>1.027981290137945</v>
       </c>
       <c r="F14">
-        <v>1.077394285039472</v>
+        <v>1.035594385774873</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051676697271981</v>
+        <v>1.050723798992966</v>
       </c>
       <c r="J14">
-        <v>1.070120899732243</v>
+        <v>1.042761949064994</v>
       </c>
       <c r="K14">
-        <v>1.068891224757519</v>
+        <v>1.046381621311328</v>
       </c>
       <c r="L14">
-        <v>1.071906861126735</v>
+        <v>1.042410436024925</v>
       </c>
       <c r="M14">
-        <v>1.080817982236922</v>
+        <v>1.049891007446581</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.063869673511489</v>
+        <v>1.014597035762066</v>
       </c>
       <c r="D15">
-        <v>1.065522975928064</v>
+        <v>1.0325348233442</v>
       </c>
       <c r="E15">
-        <v>1.068561173061767</v>
+        <v>1.028542712109419</v>
       </c>
       <c r="F15">
-        <v>1.077508380286038</v>
+        <v>1.03618148629393</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051713410119414</v>
+        <v>1.050961116801634</v>
       </c>
       <c r="J15">
-        <v>1.070208298641625</v>
+        <v>1.043227426277513</v>
       </c>
       <c r="K15">
-        <v>1.068968696563867</v>
+        <v>1.046799530251031</v>
       </c>
       <c r="L15">
-        <v>1.071996390592003</v>
+        <v>1.042876654176899</v>
       </c>
       <c r="M15">
-        <v>1.080913045343965</v>
+        <v>1.050383551529301</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.064590669375619</v>
+        <v>1.018482669870243</v>
       </c>
       <c r="D16">
-        <v>1.066085809475758</v>
+        <v>1.035483329159067</v>
       </c>
       <c r="E16">
-        <v>1.069194181350923</v>
+        <v>1.031778487060321</v>
       </c>
       <c r="F16">
-        <v>1.078172657488174</v>
+        <v>1.039565351633182</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051926681062425</v>
+        <v>1.05232478172762</v>
       </c>
       <c r="J16">
-        <v>1.070716844263062</v>
+        <v>1.045907190968819</v>
       </c>
       <c r="K16">
-        <v>1.069419423457371</v>
+        <v>1.049205285823861</v>
       </c>
       <c r="L16">
-        <v>1.072517426838242</v>
+        <v>1.045561670485028</v>
       </c>
       <c r="M16">
-        <v>1.081466321879406</v>
+        <v>1.053220497423834</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.06504298237719</v>
+        <v>1.020884219024043</v>
       </c>
       <c r="D17">
-        <v>1.066438900312277</v>
+        <v>1.037307442268244</v>
       </c>
       <c r="E17">
-        <v>1.069591396105844</v>
+        <v>1.03378086417758</v>
       </c>
       <c r="F17">
-        <v>1.078589511664597</v>
+        <v>1.041659452270832</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0520600960342</v>
+        <v>1.053165018724097</v>
       </c>
       <c r="J17">
-        <v>1.071035706318366</v>
+        <v>1.047562846367749</v>
       </c>
       <c r="K17">
-        <v>1.069701983148324</v>
+        <v>1.050691497816925</v>
       </c>
       <c r="L17">
-        <v>1.072844202999432</v>
+        <v>1.047221429286341</v>
       </c>
       <c r="M17">
-        <v>1.081813349784479</v>
+        <v>1.054974446866041</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.065306827716249</v>
+        <v>1.022272513009804</v>
       </c>
       <c r="D18">
-        <v>1.066644866728696</v>
+        <v>1.038362534867938</v>
       </c>
       <c r="E18">
-        <v>1.069823137199998</v>
+        <v>1.034939268679078</v>
       </c>
       <c r="F18">
-        <v>1.078832717211375</v>
+        <v>1.042870950121777</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052137783499864</v>
+        <v>1.053649795543076</v>
       </c>
       <c r="J18">
-        <v>1.071221644556738</v>
+        <v>1.04851971734762</v>
       </c>
       <c r="K18">
-        <v>1.069866734457671</v>
+        <v>1.051550381400327</v>
       </c>
       <c r="L18">
-        <v>1.07303478586275</v>
+        <v>1.048180978552079</v>
       </c>
       <c r="M18">
-        <v>1.082015755327843</v>
+        <v>1.05598854830273</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.065396795380062</v>
+        <v>1.022743805016757</v>
       </c>
       <c r="D19">
-        <v>1.066715098415334</v>
+        <v>1.038720812830848</v>
       </c>
       <c r="E19">
-        <v>1.069902163825714</v>
+        <v>1.035332663021259</v>
       </c>
       <c r="F19">
-        <v>1.078915654465153</v>
+        <v>1.043282380109508</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052164250663171</v>
+        <v>1.053814202691482</v>
       </c>
       <c r="J19">
-        <v>1.071285036457551</v>
+        <v>1.048844510061539</v>
       </c>
       <c r="K19">
-        <v>1.069922900059846</v>
+        <v>1.051841903566842</v>
       </c>
       <c r="L19">
-        <v>1.073099766284903</v>
+        <v>1.048506732189022</v>
       </c>
       <c r="M19">
-        <v>1.082084768704692</v>
+        <v>1.056332838232436</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.064994451533234</v>
+        <v>1.020627856437532</v>
       </c>
       <c r="D20">
-        <v>1.0664010155069</v>
+        <v>1.03711265690359</v>
       </c>
       <c r="E20">
-        <v>1.06954877329803</v>
+        <v>1.033567022365412</v>
       </c>
       <c r="F20">
-        <v>1.07854478079056</v>
+        <v>1.041435811845128</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052045795445005</v>
+        <v>1.053075422557648</v>
       </c>
       <c r="J20">
-        <v>1.071001500467231</v>
+        <v>1.047386130989586</v>
       </c>
       <c r="K20">
-        <v>1.06967167347618</v>
+        <v>1.050532873906501</v>
       </c>
       <c r="L20">
-        <v>1.072809145095039</v>
+        <v>1.047044244041255</v>
       </c>
       <c r="M20">
-        <v>1.081776118006501</v>
+        <v>1.054787196230285</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.063686611758109</v>
+        <v>1.013598992947351</v>
       </c>
       <c r="D21">
-        <v>1.065380072020457</v>
+        <v>1.031778064650925</v>
       </c>
       <c r="E21">
-        <v>1.068400482571409</v>
+        <v>1.027712388127044</v>
       </c>
       <c r="F21">
-        <v>1.077339757686321</v>
+        <v>1.035313186217666</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051659143399351</v>
+        <v>1.050610058503833</v>
       </c>
       <c r="J21">
-        <v>1.070079125511349</v>
+        <v>1.042538947184488</v>
       </c>
       <c r="K21">
-        <v>1.068854194422154</v>
+        <v>1.046181405924859</v>
       </c>
       <c r="L21">
-        <v>1.071864070214434</v>
+        <v>1.04218709686044</v>
       </c>
       <c r="M21">
-        <v>1.080772547138706</v>
+        <v>1.049655062636259</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.062864483795812</v>
+        <v>1.00905799223495</v>
       </c>
       <c r="D22">
-        <v>1.064738294794951</v>
+        <v>1.028337928503467</v>
       </c>
       <c r="E22">
-        <v>1.067678977931866</v>
+        <v>1.023938616624357</v>
       </c>
       <c r="F22">
-        <v>1.076582665063283</v>
+        <v>1.031366936551472</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051414856756399</v>
+        <v>1.0490089327375</v>
       </c>
       <c r="J22">
-        <v>1.069498751497278</v>
+        <v>1.039405705675778</v>
       </c>
       <c r="K22">
-        <v>1.068339662163455</v>
+        <v>1.043368159922327</v>
       </c>
       <c r="L22">
-        <v>1.071269680980905</v>
+        <v>1.039050307694951</v>
       </c>
       <c r="M22">
-        <v>1.080141470975535</v>
+        <v>1.046341607374024</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.063300294276089</v>
+        <v>1.011477263663964</v>
       </c>
       <c r="D23">
-        <v>1.065078500688652</v>
+        <v>1.03017007610047</v>
       </c>
       <c r="E23">
-        <v>1.068061416574682</v>
+        <v>1.025948296022918</v>
       </c>
       <c r="F23">
-        <v>1.076983961812737</v>
+        <v>1.033468443100697</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051544469920947</v>
+        <v>1.049862718759772</v>
       </c>
       <c r="J23">
-        <v>1.069806460591793</v>
+        <v>1.041075115433823</v>
       </c>
       <c r="K23">
-        <v>1.068612477718944</v>
+        <v>1.044867109824617</v>
       </c>
       <c r="L23">
-        <v>1.071584795401161</v>
+        <v>1.040721332861539</v>
       </c>
       <c r="M23">
-        <v>1.080476025122901</v>
+        <v>1.048106658236917</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.06501638047416</v>
+        <v>1.020743734153663</v>
       </c>
       <c r="D24">
-        <v>1.066418133974767</v>
+        <v>1.037200699409131</v>
       </c>
       <c r="E24">
-        <v>1.069568032547984</v>
+        <v>1.033663677711988</v>
       </c>
       <c r="F24">
-        <v>1.078564992556742</v>
+        <v>1.041536896019197</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052052257671087</v>
+        <v>1.053115923613564</v>
       </c>
       <c r="J24">
-        <v>1.071016956768975</v>
+        <v>1.047466008332949</v>
       </c>
       <c r="K24">
-        <v>1.069685369300617</v>
+        <v>1.050604573887057</v>
       </c>
       <c r="L24">
-        <v>1.072824986315055</v>
+        <v>1.047124332818654</v>
       </c>
       <c r="M24">
-        <v>1.081792941474959</v>
+        <v>1.054871834319465</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.067008544571607</v>
+        <v>1.031010797147167</v>
       </c>
       <c r="D25">
-        <v>1.067973272865024</v>
+        <v>1.045013439490452</v>
       </c>
       <c r="E25">
-        <v>1.071318434472575</v>
+        <v>1.042245168135193</v>
       </c>
       <c r="F25">
-        <v>1.080402106142701</v>
+        <v>1.050512252320059</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052636369625016</v>
+        <v>1.056683718238881</v>
       </c>
       <c r="J25">
-        <v>1.072419764741992</v>
+        <v>1.054537770577213</v>
       </c>
       <c r="K25">
-        <v>1.070928008864739</v>
+        <v>1.056950973569752</v>
       </c>
       <c r="L25">
-        <v>1.074263369463477</v>
+        <v>1.054221259493305</v>
       </c>
       <c r="M25">
-        <v>1.083320759525489</v>
+        <v>1.062373956590285</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
